--- a/Project/Datasets/ilmesafe.xlsx
+++ b/Project/Datasets/ilmesafe.xlsx
@@ -17,9 +17,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="164">
   <si>
     <t>İL PLAKA NO</t>
-  </si>
-  <si>
-    <t>İL ADI</t>
   </si>
   <si>
     <t>ADANA</t>
@@ -507,6 +504,9 @@
   <si>
     <t>81</t>
   </si>
+  <si>
+    <t>Name</t>
+  </si>
 </sst>
 </file>
 
@@ -935,7 +935,7 @@
   <dimension ref="A1:CE83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -952,258 +952,258 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AV1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AW1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AX1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AY1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BB1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BC1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BD1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BE1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BF1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BG1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BH1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BI1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BK1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BL1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BM1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BN1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BO1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BP1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BQ1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BR1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BS1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="4" t="s">
+      <c r="BT1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="4" t="s">
+      <c r="BU1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="4" t="s">
+      <c r="BV1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="4" t="s">
+      <c r="BW1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="4" t="s">
+      <c r="BX1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="4" t="s">
+      <c r="BY1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="4" t="s">
+      <c r="BZ1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="4" t="s">
+      <c r="CA1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="4" t="s">
+      <c r="CB1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="4" t="s">
+      <c r="CC1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="4" t="s">
+      <c r="CD1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="4" t="s">
+      <c r="CE1" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="CE1" s="4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="3">
@@ -1449,10 +1449,10 @@
     </row>
     <row r="3" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="9">
         <v>337</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="4" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
         <v>578</v>
@@ -1947,10 +1947,10 @@
     </row>
     <row r="5" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="9">
         <v>973</v>
@@ -2196,10 +2196,10 @@
     </row>
     <row r="6" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>603</v>
@@ -2445,10 +2445,10 @@
     </row>
     <row r="7" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="9">
         <v>492</v>
@@ -2694,10 +2694,10 @@
     </row>
     <row r="8" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1">
         <v>547</v>
@@ -2943,10 +2943,10 @@
     </row>
     <row r="9" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="9">
         <v>1001</v>
@@ -3192,10 +3192,10 @@
     </row>
     <row r="10" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1">
         <v>880</v>
@@ -3441,10 +3441,10 @@
     </row>
     <row r="11" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="9">
         <v>902</v>
@@ -3690,10 +3690,10 @@
     </row>
     <row r="12" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1">
         <v>785</v>
@@ -3939,10 +3939,10 @@
     </row>
     <row r="13" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="9">
         <v>631</v>
@@ -4188,10 +4188,10 @@
     </row>
     <row r="14" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1">
         <v>741</v>
@@ -4437,10 +4437,10 @@
     </row>
     <row r="15" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="9">
         <v>688</v>
@@ -4686,10 +4686,10 @@
     </row>
     <row r="16" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1">
         <v>648</v>
@@ -4935,10 +4935,10 @@
     </row>
     <row r="17" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="9">
         <v>856</v>
@@ -5184,10 +5184,10 @@
     </row>
     <row r="18" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1">
         <v>1096</v>
@@ -5433,10 +5433,10 @@
     </row>
     <row r="19" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="9">
         <v>587</v>
@@ -5682,10 +5682,10 @@
     </row>
     <row r="20" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1">
         <v>582</v>
@@ -5931,10 +5931,10 @@
     </row>
     <row r="21" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="9">
         <v>762</v>
@@ -6180,10 +6180,10 @@
     </row>
     <row r="22" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="1">
         <v>537</v>
@@ -6429,10 +6429,10 @@
     </row>
     <row r="23" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="9">
         <v>1183</v>
@@ -6678,10 +6678,10 @@
     </row>
     <row r="24" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="1">
         <v>494</v>
@@ -6927,10 +6927,10 @@
     </row>
     <row r="25" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="9">
         <v>676</v>
@@ -7176,10 +7176,10 @@
     </row>
     <row r="26" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="1">
         <v>807</v>
@@ -7425,10 +7425,10 @@
     </row>
     <row r="27" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="9">
         <v>690</v>
@@ -7674,10 +7674,10 @@
     </row>
     <row r="28" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="1">
         <v>216</v>
@@ -7923,10 +7923,10 @@
     </row>
     <row r="29" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="9">
         <v>720</v>
@@ -8172,10 +8172,10 @@
     </row>
     <row r="30" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="1">
         <v>789</v>
@@ -8421,10 +8421,10 @@
     </row>
     <row r="31" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="9">
         <v>901</v>
@@ -8670,10 +8670,10 @@
     </row>
     <row r="32" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="1">
         <v>196</v>
@@ -8919,10 +8919,10 @@
     </row>
     <row r="33" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="9">
         <v>618</v>
@@ -9168,10 +9168,10 @@
     </row>
     <row r="34" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="1">
         <v>70</v>
@@ -9417,10 +9417,10 @@
     </row>
     <row r="35" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="9">
         <v>951</v>
@@ -9666,10 +9666,10 @@
     </row>
     <row r="36" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" s="1">
         <v>907</v>
@@ -9915,10 +9915,10 @@
     </row>
     <row r="37" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="9">
         <v>1012</v>
@@ -10164,10 +10164,10 @@
     </row>
     <row r="38" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="1">
         <v>693</v>
@@ -10413,10 +10413,10 @@
     </row>
     <row r="39" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" s="9">
         <v>335</v>
@@ -10662,10 +10662,10 @@
     </row>
     <row r="40" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" s="1">
         <v>1159</v>
@@ -10911,10 +10911,10 @@
     </row>
     <row r="41" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" s="9">
         <v>377</v>
@@ -11160,10 +11160,10 @@
     </row>
     <row r="42" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C42" s="1">
         <v>840</v>
@@ -11409,10 +11409,10 @@
     </row>
     <row r="43" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C43" s="9">
         <v>357</v>
@@ -11658,10 +11658,10 @@
     </row>
     <row r="44" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C44" s="1">
         <v>675</v>
@@ -11907,10 +11907,10 @@
     </row>
     <row r="45" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C45" s="9">
         <v>397</v>
@@ -12156,10 +12156,10 @@
     </row>
     <row r="46" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C46" s="1">
         <v>886</v>
@@ -12405,10 +12405,10 @@
     </row>
     <row r="47" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C47" s="9">
         <v>197</v>
@@ -12654,10 +12654,10 @@
     </row>
     <row r="48" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C48" s="1">
         <v>542</v>
@@ -12903,10 +12903,10 @@
     </row>
     <row r="49" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C49" s="9">
         <v>856</v>
@@ -13152,10 +13152,10 @@
     </row>
     <row r="50" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C50" s="1">
         <v>741</v>
@@ -13401,10 +13401,10 @@
     </row>
     <row r="51" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C51" s="9">
         <v>287</v>
@@ -13650,10 +13650,10 @@
     </row>
     <row r="52" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C52" s="1">
         <v>210</v>
@@ -13899,10 +13899,10 @@
     </row>
     <row r="53" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C53" s="9">
         <v>707</v>
@@ -14148,10 +14148,10 @@
     </row>
     <row r="54" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C54" s="1">
         <v>917</v>
@@ -14397,10 +14397,10 @@
     </row>
     <row r="55" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C55" s="9">
         <v>803</v>
@@ -14646,10 +14646,10 @@
     </row>
     <row r="56" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C56" s="1">
         <v>754</v>
@@ -14895,10 +14895,10 @@
     </row>
     <row r="57" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C57" s="9">
         <v>715</v>
@@ -15144,10 +15144,10 @@
     </row>
     <row r="58" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C58" s="1">
         <v>865</v>
@@ -15393,10 +15393,10 @@
     </row>
     <row r="59" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C59" s="9">
         <v>428</v>
@@ -15642,10 +15642,10 @@
     </row>
     <row r="60" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C60" s="1">
         <v>1082</v>
@@ -15891,10 +15891,10 @@
     </row>
     <row r="61" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C61" s="9">
         <v>492</v>
@@ -16140,10 +16140,10 @@
     </row>
     <row r="62" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C62" s="1">
         <v>838</v>
@@ -16389,10 +16389,10 @@
     </row>
     <row r="63" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C63" s="9">
         <v>630</v>
@@ -16638,10 +16638,10 @@
     </row>
     <row r="64" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C64" s="1">
         <v>355</v>
@@ -16887,10 +16887,10 @@
     </row>
     <row r="65" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C65" s="9">
         <v>690</v>
@@ -17136,10 +17136,10 @@
     </row>
     <row r="66" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C66" s="1">
         <v>900</v>
@@ -17385,10 +17385,10 @@
     </row>
     <row r="67" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C67" s="9">
         <v>490</v>
@@ -17634,10 +17634,10 @@
     </row>
     <row r="68" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C68" s="1">
         <v>764</v>
@@ -17883,10 +17883,10 @@
     </row>
     <row r="69" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" s="9">
         <v>268</v>
@@ -18132,10 +18132,10 @@
     </row>
     <row r="70" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="1">
         <v>801</v>
@@ -18381,10 +18381,10 @@
     </row>
     <row r="71" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" s="9">
         <v>293</v>
@@ -18630,10 +18630,10 @@
     </row>
     <row r="72" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C72" s="1">
         <v>483</v>
@@ -18879,10 +18879,10 @@
     </row>
     <row r="73" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C73" s="9">
         <v>628</v>
@@ -19128,10 +19128,10 @@
     </row>
     <row r="74" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C74" s="1">
         <v>712</v>
@@ -19377,10 +19377,10 @@
     </row>
     <row r="75" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C75" s="9">
         <v>784</v>
@@ -19626,10 +19626,10 @@
     </row>
     <row r="76" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C76" s="1">
         <v>1037</v>
@@ -19875,10 +19875,10 @@
     </row>
     <row r="77" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C77" s="9">
         <v>1077</v>
@@ -20124,10 +20124,10 @@
     </row>
     <row r="78" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C78" s="1">
         <v>905</v>
@@ -20373,10 +20373,10 @@
     </row>
     <row r="79" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C79" s="9">
         <v>714</v>
@@ -20622,10 +20622,10 @@
     </row>
     <row r="80" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C80" s="1">
         <v>251</v>
@@ -20871,10 +20871,10 @@
     </row>
     <row r="81" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C81" s="9">
         <v>89</v>
@@ -21120,10 +21120,10 @@
     </row>
     <row r="82" spans="1:83" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C82" s="1">
         <v>735</v>
@@ -21377,31 +21377,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <SharedWithUsers xmlns="116776fd-905b-4a7f-ba2f-f1d8893a9227">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Belge" ma:contentTypeID="0x01010026D927A195A9314D8B75397DB734D012" ma:contentTypeVersion="2" ma:contentTypeDescription="Yeni belge oluşturun." ma:contentTypeScope="" ma:versionID="1ec423dfa13fe1efb600f80c8f86555d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="116776fd-905b-4a7f-ba2f-f1d8893a9227" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="745bd85354c6fa13e54a83b41aef6b37" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -21558,26 +21533,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58CC262A-B562-42E0-91FC-5EF403BD7CB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="116776fd-905b-4a7f-ba2f-f1d8893a9227"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C53CF22A-DE78-474E-9BBE-C17B89D94692}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <SharedWithUsers xmlns="116776fd-905b-4a7f-ba2f-f1d8893a9227">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39EAF90C-9F66-45AD-B6BE-9C9100382316}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21594,4 +21575,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C53CF22A-DE78-474E-9BBE-C17B89D94692}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58CC262A-B562-42E0-91FC-5EF403BD7CB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="116776fd-905b-4a7f-ba2f-f1d8893a9227"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>